--- a/xlsx/public-sector-financial-resource.xlsx
+++ b/xlsx/public-sector-financial-resource.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="172">
   <si>
     <t xml:space="preserve">AppropriationID</t>
   </si>
@@ -47,12 +47,18 @@
     <t xml:space="preserve">Agriculture and Forestry</t>
   </si>
   <si>
+    <t xml:space="preserve">Scope not currently available</t>
+  </si>
+  <si>
     <t xml:space="preserve">E</t>
   </si>
   <si>
     <t xml:space="preserve">Primary Growth Partnership</t>
   </si>
   <si>
+    <t xml:space="preserve">Sustainable Farming Fund</t>
+  </si>
+  <si>
     <t xml:space="preserve">Centres of Research Excellence</t>
   </si>
   <si>
@@ -173,6 +179,12 @@
     <t xml:space="preserve">Payment of contributions towards the cost of energy-related research undertaken by the International Energy Agency.</t>
   </si>
   <si>
+    <t xml:space="preserve">Primary Industries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This appropriation is limited to community driven programmes aimed at improving economic and environmental performance.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Advanced Technology Institute</t>
   </si>
   <si>
@@ -350,6 +362,24 @@
     <t xml:space="preserve">This appropriation is limited to obtaining science, research, technology, capacity and capability in climate change related to the primary land-based sectors.</t>
   </si>
   <si>
+    <t xml:space="preserve">Grants and Programmes: Adverse Climatic Events</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This category is limited to providing recovery assistance to the primary sector in the aftermath of adverse climatic events and assistance to rural support trusts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grants and Programmes: Hill Country Erosion Fund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This category is limited to projects that protect erosion-prone hill country.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grants and Programmes: Sustainable Farming Fund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This category is limited to community driven programmes aimed at improving economic and environmental performance in farming.</t>
+  </si>
+  <si>
     <t xml:space="preserve">This appropriation is limited to primary, food and forestry sector investment in education and skills development, research and development, product development, commercialisation, market development and technology transfer, in partnership with relevant industry groups, including research related to greenhouse gases via the New Zealand Agricultural Greenhouse Gas Research Centre.</t>
   </si>
   <si>
@@ -452,6 +482,12 @@
     <t xml:space="preserve">Strategic Science Investment Fund: Strategic Science Investment Fund - Programmes</t>
   </si>
   <si>
+    <t xml:space="preserve">Grants and Programmes: Adverse Earthquake Events</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This category is limited to providing recovery support and assistance to the primary sector and rural support trusts in the aftermath of adverse earthquake events.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Food Safety: Protecting Consumers: Food Safety Science and Research</t>
   </si>
   <si>
@@ -465,6 +501,15 @@
   </si>
   <si>
     <t xml:space="preserve">This category is limited to the development of joint food standards, codes of practice, and guidance material for Australia and New Zealand by Food Standards Australia New Zealand in accordance with the Joint Food Standards Setting Treaty.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programmes Supporting Sustainability: Adverse Climatic Events</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programmes Supporting Sustainability: Climate Change Research</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programmes Supporting Sustainability: Sustainable Farming Fund</t>
   </si>
   <si>
     <t xml:space="preserve">Endeavour Fund</t>
@@ -853,9 +898,11 @@
       <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="E2"/>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" t="n">
         <v>2010</v>
@@ -869,7 +916,7 @@
         <v>9559</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -877,9 +924,11 @@
       <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="E3"/>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3" t="n">
         <v>2010</v>
@@ -890,20 +939,22 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>8916</v>
+        <v>6114</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4"/>
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" t="n">
         <v>2010</v>
@@ -914,7 +965,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>9174</v>
+        <v>8916</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -923,11 +974,13 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5"/>
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G5" t="n">
         <v>2010</v>
@@ -938,20 +991,22 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>9332</v>
+        <v>9174</v>
       </c>
       <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6"/>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G6" t="n">
         <v>2010</v>
@@ -962,7 +1017,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>98</v>
+        <v>9332</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
@@ -971,11 +1026,13 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7"/>
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G7" t="n">
         <v>2010</v>
@@ -986,20 +1043,22 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8811</v>
+        <v>98</v>
       </c>
       <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
         <v>19</v>
       </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8"/>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G8" t="n">
         <v>2010</v>
@@ -1010,7 +1069,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8843</v>
+        <v>8811</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
@@ -1019,11 +1078,13 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9"/>
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G9" t="n">
         <v>2010</v>
@@ -1034,20 +1095,22 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9645</v>
+        <v>8843</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10"/>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G10" t="n">
         <v>2010</v>
@@ -1058,20 +1121,22 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9032</v>
+        <v>9645</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11"/>
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G11" t="n">
         <v>2010</v>
@@ -1082,20 +1147,22 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>753</v>
+        <v>9032</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12"/>
+        <v>22</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
       <c r="F12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G12" t="n">
         <v>2010</v>
@@ -1106,20 +1173,22 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>9193</v>
+        <v>753</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13"/>
+        <v>22</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
       <c r="F13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G13" t="n">
         <v>2010</v>
@@ -1130,20 +1199,22 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>9646</v>
+        <v>9193</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14"/>
+        <v>22</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
       <c r="F14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G14" t="n">
         <v>2010</v>
@@ -1154,20 +1225,22 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6082</v>
+        <v>9646</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15"/>
+        <v>22</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
       <c r="F15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G15" t="n">
         <v>2010</v>
@@ -1178,20 +1251,22 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6089</v>
+        <v>6082</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16"/>
+        <v>22</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
       <c r="F16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G16" t="n">
         <v>2010</v>
@@ -1202,20 +1277,22 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>9647</v>
+        <v>6089</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17"/>
+        <v>22</v>
+      </c>
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
       <c r="F17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G17" t="n">
         <v>2010</v>
@@ -1226,20 +1303,22 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>9441</v>
+        <v>9647</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18"/>
+        <v>22</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
       <c r="F18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G18" t="n">
         <v>2010</v>
@@ -1250,20 +1329,22 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>8942</v>
+        <v>9441</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19"/>
+        <v>22</v>
+      </c>
+      <c r="E19" t="s">
+        <v>11</v>
+      </c>
       <c r="F19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G19" t="n">
         <v>2010</v>
@@ -1274,20 +1355,22 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>9648</v>
+        <v>8942</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20"/>
+        <v>22</v>
+      </c>
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
       <c r="F20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G20" t="n">
         <v>2010</v>
@@ -1298,20 +1381,22 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>9649</v>
+        <v>9648</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21"/>
+        <v>22</v>
+      </c>
+      <c r="E21" t="s">
+        <v>11</v>
+      </c>
       <c r="F21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G21" t="n">
         <v>2010</v>
@@ -1322,20 +1407,22 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>9650</v>
+        <v>9649</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22"/>
+        <v>22</v>
+      </c>
+      <c r="E22" t="s">
+        <v>11</v>
+      </c>
       <c r="F22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G22" t="n">
         <v>2010</v>
@@ -1346,20 +1433,22 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>9652</v>
+        <v>9650</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23"/>
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>11</v>
+      </c>
       <c r="F23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G23" t="n">
         <v>2010</v>
@@ -1370,20 +1459,22 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>748</v>
+        <v>9652</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24"/>
+        <v>22</v>
+      </c>
+      <c r="E24" t="s">
+        <v>11</v>
+      </c>
       <c r="F24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G24" t="n">
         <v>2010</v>
@@ -1394,20 +1485,22 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s">
         <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25"/>
+        <v>22</v>
+      </c>
+      <c r="E25" t="s">
+        <v>11</v>
+      </c>
       <c r="F25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G25" t="n">
         <v>2010</v>
@@ -1418,20 +1511,22 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>9059</v>
+        <v>745</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
         <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26"/>
+        <v>22</v>
+      </c>
+      <c r="E26" t="s">
+        <v>11</v>
+      </c>
       <c r="F26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G26" t="n">
         <v>2010</v>
@@ -1442,20 +1537,22 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>8890</v>
+        <v>9059</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
         <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27"/>
+        <v>22</v>
+      </c>
+      <c r="E27" t="s">
+        <v>11</v>
+      </c>
       <c r="F27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G27" t="n">
         <v>2010</v>
@@ -1466,20 +1563,22 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>6083</v>
+        <v>8890</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C28" t="s">
         <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28"/>
+        <v>22</v>
+      </c>
+      <c r="E28" t="s">
+        <v>11</v>
+      </c>
       <c r="F28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G28" t="n">
         <v>2010</v>
@@ -1490,20 +1589,22 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>9401</v>
+        <v>6083</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C29" t="s">
         <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>20</v>
-      </c>
-      <c r="E29"/>
+        <v>22</v>
+      </c>
+      <c r="E29" t="s">
+        <v>11</v>
+      </c>
       <c r="F29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G29" t="n">
         <v>2010</v>
@@ -1514,20 +1615,22 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>9653</v>
+        <v>9401</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C30" t="s">
         <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>20</v>
-      </c>
-      <c r="E30"/>
+        <v>22</v>
+      </c>
+      <c r="E30" t="s">
+        <v>11</v>
+      </c>
       <c r="F30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G30" t="n">
         <v>2010</v>
@@ -1538,20 +1641,22 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>9651</v>
+        <v>9653</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C31" t="s">
         <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>20</v>
-      </c>
-      <c r="E31"/>
+        <v>22</v>
+      </c>
+      <c r="E31" t="s">
+        <v>11</v>
+      </c>
       <c r="F31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G31" t="n">
         <v>2010</v>
@@ -1562,20 +1667,22 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>9534</v>
+        <v>9651</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C32" t="s">
         <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>45</v>
-      </c>
-      <c r="E32"/>
+        <v>22</v>
+      </c>
+      <c r="E32" t="s">
+        <v>11</v>
+      </c>
       <c r="F32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G32" t="n">
         <v>2010</v>
@@ -1586,34 +1693,36 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>9626</v>
+        <v>9534</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="C33" t="s">
         <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33"/>
+        <v>47</v>
+      </c>
+      <c r="E33" t="s">
+        <v>11</v>
+      </c>
       <c r="F33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G33" t="n">
+        <v>2010</v>
+      </c>
+      <c r="H33" t="n">
         <v>2011</v>
-      </c>
-      <c r="H33" t="n">
-        <v>2012</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>9559</v>
+        <v>9626</v>
       </c>
       <c r="B34" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
         <v>9</v>
@@ -1621,9 +1730,11 @@
       <c r="D34" t="s">
         <v>10</v>
       </c>
-      <c r="E34"/>
+      <c r="E34" t="s">
+        <v>11</v>
+      </c>
       <c r="F34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G34" t="n">
         <v>2011</v>
@@ -1634,20 +1745,22 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>9332</v>
+        <v>9559</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C35" t="s">
         <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35"/>
+        <v>10</v>
+      </c>
+      <c r="E35" t="s">
+        <v>11</v>
+      </c>
       <c r="F35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G35" t="n">
         <v>2011</v>
@@ -1658,20 +1771,22 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>98</v>
+        <v>6114</v>
       </c>
       <c r="B36" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C36" t="s">
         <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>17</v>
-      </c>
-      <c r="E36"/>
+        <v>10</v>
+      </c>
+      <c r="E36" t="s">
+        <v>11</v>
+      </c>
       <c r="F36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G36" t="n">
         <v>2011</v>
@@ -1682,20 +1797,22 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>8811</v>
+        <v>9332</v>
       </c>
       <c r="B37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" t="s">
         <v>19</v>
       </c>
-      <c r="C37" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" t="s">
-        <v>46</v>
-      </c>
-      <c r="E37"/>
+      <c r="E37" t="s">
+        <v>11</v>
+      </c>
       <c r="F37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G37" t="n">
         <v>2011</v>
@@ -1706,20 +1823,22 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>9645</v>
+        <v>98</v>
       </c>
       <c r="B38" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C38" t="s">
         <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>46</v>
-      </c>
-      <c r="E38"/>
+        <v>19</v>
+      </c>
+      <c r="E38" t="s">
+        <v>11</v>
+      </c>
       <c r="F38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G38" t="n">
         <v>2011</v>
@@ -1730,20 +1849,22 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>753</v>
+        <v>8811</v>
       </c>
       <c r="B39" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C39" t="s">
         <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>46</v>
-      </c>
-      <c r="E39"/>
+        <v>48</v>
+      </c>
+      <c r="E39" t="s">
+        <v>11</v>
+      </c>
       <c r="F39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G39" t="n">
         <v>2011</v>
@@ -1754,20 +1875,22 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>10221</v>
+        <v>9645</v>
       </c>
       <c r="B40" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="C40" t="s">
         <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>46</v>
-      </c>
-      <c r="E40"/>
+        <v>48</v>
+      </c>
+      <c r="E40" t="s">
+        <v>11</v>
+      </c>
       <c r="F40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G40" t="n">
         <v>2011</v>
@@ -1778,7 +1901,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>9646</v>
+        <v>753</v>
       </c>
       <c r="B41" t="s">
         <v>26</v>
@@ -1787,11 +1910,13 @@
         <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>46</v>
-      </c>
-      <c r="E41"/>
+        <v>48</v>
+      </c>
+      <c r="E41" t="s">
+        <v>11</v>
+      </c>
       <c r="F41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G41" t="n">
         <v>2011</v>
@@ -1802,20 +1927,22 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>6082</v>
+        <v>10221</v>
       </c>
       <c r="B42" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="C42" t="s">
         <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>46</v>
-      </c>
-      <c r="E42"/>
+        <v>48</v>
+      </c>
+      <c r="E42" t="s">
+        <v>11</v>
+      </c>
       <c r="F42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G42" t="n">
         <v>2011</v>
@@ -1826,7 +1953,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>6089</v>
+        <v>9646</v>
       </c>
       <c r="B43" t="s">
         <v>28</v>
@@ -1835,11 +1962,13 @@
         <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>46</v>
-      </c>
-      <c r="E43"/>
+        <v>48</v>
+      </c>
+      <c r="E43" t="s">
+        <v>11</v>
+      </c>
       <c r="F43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G43" t="n">
         <v>2011</v>
@@ -1850,7 +1979,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>9647</v>
+        <v>6082</v>
       </c>
       <c r="B44" t="s">
         <v>29</v>
@@ -1859,11 +1988,13 @@
         <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>46</v>
-      </c>
-      <c r="E44"/>
+        <v>48</v>
+      </c>
+      <c r="E44" t="s">
+        <v>11</v>
+      </c>
       <c r="F44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G44" t="n">
         <v>2011</v>
@@ -1874,7 +2005,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>9441</v>
+        <v>6089</v>
       </c>
       <c r="B45" t="s">
         <v>30</v>
@@ -1883,11 +2014,13 @@
         <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>46</v>
-      </c>
-      <c r="E45"/>
+        <v>48</v>
+      </c>
+      <c r="E45" t="s">
+        <v>11</v>
+      </c>
       <c r="F45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G45" t="n">
         <v>2011</v>
@@ -1898,20 +2031,22 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>9648</v>
+        <v>9647</v>
       </c>
       <c r="B46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C46" t="s">
         <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>46</v>
-      </c>
-      <c r="E46"/>
+        <v>48</v>
+      </c>
+      <c r="E46" t="s">
+        <v>11</v>
+      </c>
       <c r="F46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G46" t="n">
         <v>2011</v>
@@ -1922,20 +2057,22 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>9649</v>
+        <v>9441</v>
       </c>
       <c r="B47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C47" t="s">
         <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>46</v>
-      </c>
-      <c r="E47"/>
+        <v>48</v>
+      </c>
+      <c r="E47" t="s">
+        <v>11</v>
+      </c>
       <c r="F47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G47" t="n">
         <v>2011</v>
@@ -1946,7 +2083,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>9650</v>
+        <v>9648</v>
       </c>
       <c r="B48" t="s">
         <v>34</v>
@@ -1955,11 +2092,13 @@
         <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>46</v>
-      </c>
-      <c r="E48"/>
+        <v>48</v>
+      </c>
+      <c r="E48" t="s">
+        <v>11</v>
+      </c>
       <c r="F48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G48" t="n">
         <v>2011</v>
@@ -1970,7 +2109,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>9652</v>
+        <v>9649</v>
       </c>
       <c r="B49" t="s">
         <v>35</v>
@@ -1979,11 +2118,13 @@
         <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>46</v>
-      </c>
-      <c r="E49"/>
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>11</v>
+      </c>
       <c r="F49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G49" t="n">
         <v>2011</v>
@@ -1994,7 +2135,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>748</v>
+        <v>9650</v>
       </c>
       <c r="B50" t="s">
         <v>36</v>
@@ -2003,11 +2144,13 @@
         <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>46</v>
-      </c>
-      <c r="E50"/>
+        <v>48</v>
+      </c>
+      <c r="E50" t="s">
+        <v>11</v>
+      </c>
       <c r="F50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G50" t="n">
         <v>2011</v>
@@ -2018,20 +2161,22 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>10136</v>
+        <v>9652</v>
       </c>
       <c r="B51" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C51" t="s">
         <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>46</v>
-      </c>
-      <c r="E51"/>
+        <v>48</v>
+      </c>
+      <c r="E51" t="s">
+        <v>11</v>
+      </c>
       <c r="F51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G51" t="n">
         <v>2011</v>
@@ -2042,20 +2187,22 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="B52" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C52" t="s">
         <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>46</v>
-      </c>
-      <c r="E52"/>
+        <v>48</v>
+      </c>
+      <c r="E52" t="s">
+        <v>11</v>
+      </c>
       <c r="F52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G52" t="n">
         <v>2011</v>
@@ -2066,20 +2213,22 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>6083</v>
+        <v>10136</v>
       </c>
       <c r="B53" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C53" t="s">
         <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>46</v>
-      </c>
-      <c r="E53"/>
+        <v>48</v>
+      </c>
+      <c r="E53" t="s">
+        <v>11</v>
+      </c>
       <c r="F53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G53" t="n">
         <v>2011</v>
@@ -2090,20 +2239,22 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>9401</v>
+        <v>745</v>
       </c>
       <c r="B54" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C54" t="s">
         <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>46</v>
-      </c>
-      <c r="E54"/>
+        <v>48</v>
+      </c>
+      <c r="E54" t="s">
+        <v>11</v>
+      </c>
       <c r="F54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G54" t="n">
         <v>2011</v>
@@ -2114,7 +2265,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>9653</v>
+        <v>6083</v>
       </c>
       <c r="B55" t="s">
         <v>42</v>
@@ -2123,11 +2274,13 @@
         <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>46</v>
-      </c>
-      <c r="E55"/>
+        <v>48</v>
+      </c>
+      <c r="E55" t="s">
+        <v>11</v>
+      </c>
       <c r="F55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G55" t="n">
         <v>2011</v>
@@ -2138,7 +2291,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>9651</v>
+        <v>9401</v>
       </c>
       <c r="B56" t="s">
         <v>43</v>
@@ -2147,11 +2300,13 @@
         <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>46</v>
-      </c>
-      <c r="E56"/>
+        <v>48</v>
+      </c>
+      <c r="E56" t="s">
+        <v>11</v>
+      </c>
       <c r="F56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G56" t="n">
         <v>2011</v>
@@ -2162,20 +2317,22 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>10105</v>
+        <v>9653</v>
       </c>
       <c r="B57" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C57" t="s">
         <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>49</v>
-      </c>
-      <c r="E57"/>
+        <v>48</v>
+      </c>
+      <c r="E57" t="s">
+        <v>11</v>
+      </c>
       <c r="F57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G57" t="n">
         <v>2011</v>
@@ -2186,20 +2343,22 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>10111</v>
+        <v>9651</v>
       </c>
       <c r="B58" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C58" t="s">
         <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>49</v>
-      </c>
-      <c r="E58"/>
+        <v>48</v>
+      </c>
+      <c r="E58" t="s">
+        <v>11</v>
+      </c>
       <c r="F58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G58" t="n">
         <v>2011</v>
@@ -2210,74 +2369,74 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>9332</v>
+        <v>10105</v>
       </c>
       <c r="B59" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C59" t="s">
         <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="E59" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G59" t="n">
+        <v>2011</v>
+      </c>
+      <c r="H59" t="n">
         <v>2012</v>
-      </c>
-      <c r="H59" t="n">
-        <v>2013</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>98</v>
+        <v>10111</v>
       </c>
       <c r="B60" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="C60" t="s">
         <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="E60" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G60" t="n">
+        <v>2011</v>
+      </c>
+      <c r="H60" t="n">
         <v>2012</v>
-      </c>
-      <c r="H60" t="n">
-        <v>2013</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>10660</v>
+        <v>9332</v>
       </c>
       <c r="B61" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" t="s">
+        <v>19</v>
+      </c>
+      <c r="E61" t="s">
         <v>53</v>
       </c>
-      <c r="C61" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" t="s">
-        <v>46</v>
-      </c>
-      <c r="E61" t="s">
-        <v>54</v>
-      </c>
       <c r="F61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G61" t="n">
         <v>2012</v>
@@ -2288,22 +2447,22 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>8843</v>
+        <v>98</v>
       </c>
       <c r="B62" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C62" t="s">
         <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="E62" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G62" t="n">
         <v>2012</v>
@@ -2314,22 +2473,22 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>9645</v>
+        <v>10579</v>
       </c>
       <c r="B63" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C63" t="s">
         <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E63" t="s">
         <v>56</v>
       </c>
       <c r="F63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G63" t="n">
         <v>2012</v>
@@ -2340,22 +2499,22 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>753</v>
+        <v>10660</v>
       </c>
       <c r="B64" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="C64" t="s">
         <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E64" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G64" t="n">
         <v>2012</v>
@@ -2366,22 +2525,22 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>10221</v>
+        <v>8843</v>
       </c>
       <c r="B65" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="C65" t="s">
         <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E65" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G65" t="n">
         <v>2012</v>
@@ -2392,22 +2551,22 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>9646</v>
+        <v>9645</v>
       </c>
       <c r="B66" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C66" t="s">
         <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E66" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G66" t="n">
         <v>2012</v>
@@ -2418,22 +2577,22 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>6082</v>
+        <v>753</v>
       </c>
       <c r="B67" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C67" t="s">
         <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E67" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G67" t="n">
         <v>2012</v>
@@ -2444,22 +2603,22 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>6089</v>
+        <v>10221</v>
       </c>
       <c r="B68" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="C68" t="s">
         <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E68" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G68" t="n">
         <v>2012</v>
@@ -2470,22 +2629,22 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>9647</v>
+        <v>9646</v>
       </c>
       <c r="B69" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C69" t="s">
         <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E69" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G69" t="n">
         <v>2012</v>
@@ -2496,22 +2655,22 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>9441</v>
+        <v>6082</v>
       </c>
       <c r="B70" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C70" t="s">
         <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E70" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G70" t="n">
         <v>2012</v>
@@ -2522,22 +2681,22 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>9648</v>
+        <v>6089</v>
       </c>
       <c r="B71" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C71" t="s">
         <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E71" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G71" t="n">
         <v>2012</v>
@@ -2548,22 +2707,22 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>9649</v>
+        <v>9647</v>
       </c>
       <c r="B72" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C72" t="s">
         <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E72" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G72" t="n">
         <v>2012</v>
@@ -2574,22 +2733,22 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>9650</v>
+        <v>9441</v>
       </c>
       <c r="B73" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C73" t="s">
         <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E73" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G73" t="n">
         <v>2012</v>
@@ -2600,22 +2759,22 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>9652</v>
+        <v>9648</v>
       </c>
       <c r="B74" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C74" t="s">
         <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E74" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G74" t="n">
         <v>2012</v>
@@ -2626,22 +2785,22 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>748</v>
+        <v>9649</v>
       </c>
       <c r="B75" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C75" t="s">
         <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E75" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G75" t="n">
         <v>2012</v>
@@ -2652,22 +2811,22 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>10136</v>
+        <v>9650</v>
       </c>
       <c r="B76" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C76" t="s">
         <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E76" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G76" t="n">
         <v>2012</v>
@@ -2678,7 +2837,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>745</v>
+        <v>9652</v>
       </c>
       <c r="B77" t="s">
         <v>37</v>
@@ -2687,13 +2846,13 @@
         <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E77" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G77" t="n">
         <v>2012</v>
@@ -2704,22 +2863,22 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>10659</v>
+        <v>748</v>
       </c>
       <c r="B78" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="C78" t="s">
         <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E78" t="s">
         <v>72</v>
       </c>
       <c r="F78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G78" t="n">
         <v>2012</v>
@@ -2730,22 +2889,22 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>6083</v>
+        <v>10136</v>
       </c>
       <c r="B79" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C79" t="s">
         <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E79" t="s">
         <v>73</v>
       </c>
       <c r="F79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G79" t="n">
         <v>2012</v>
@@ -2756,22 +2915,22 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>9401</v>
+        <v>745</v>
       </c>
       <c r="B80" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C80" t="s">
         <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E80" t="s">
         <v>74</v>
       </c>
       <c r="F80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G80" t="n">
         <v>2012</v>
@@ -2782,22 +2941,22 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>9653</v>
+        <v>10659</v>
       </c>
       <c r="B81" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="C81" t="s">
         <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E81" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G81" t="n">
         <v>2012</v>
@@ -2808,22 +2967,22 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>9651</v>
+        <v>6083</v>
       </c>
       <c r="B82" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C82" t="s">
         <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E82" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G82" t="n">
         <v>2012</v>
@@ -2834,22 +2993,22 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>10105</v>
+        <v>9401</v>
       </c>
       <c r="B83" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="C83" t="s">
         <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E83" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G83" t="n">
         <v>2012</v>
@@ -2860,22 +3019,22 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>10111</v>
+        <v>9653</v>
       </c>
       <c r="B84" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C84" t="s">
         <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E84" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G84" t="n">
         <v>2012</v>
@@ -2886,22 +3045,22 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>10609</v>
+        <v>9651</v>
       </c>
       <c r="B85" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="C85" t="s">
         <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E85" t="s">
         <v>80</v>
       </c>
       <c r="F85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G85" t="n">
         <v>2012</v>
@@ -2912,100 +3071,100 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>9332</v>
+        <v>10105</v>
       </c>
       <c r="B86" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C86" t="s">
         <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="E86" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="F86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G86" t="n">
+        <v>2012</v>
+      </c>
+      <c r="H86" t="n">
         <v>2013</v>
-      </c>
-      <c r="H86" t="n">
-        <v>2014</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>98</v>
+        <v>10111</v>
       </c>
       <c r="B87" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="C87" t="s">
         <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="E87" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="F87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G87" t="n">
+        <v>2012</v>
+      </c>
+      <c r="H87" t="n">
         <v>2013</v>
-      </c>
-      <c r="H87" t="n">
-        <v>2014</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>9192</v>
+        <v>10609</v>
       </c>
       <c r="B88" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C88" t="s">
         <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E88" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G88" t="n">
+        <v>2012</v>
+      </c>
+      <c r="H88" t="n">
         <v>2013</v>
-      </c>
-      <c r="H88" t="n">
-        <v>2014</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>10660</v>
+        <v>9332</v>
       </c>
       <c r="B89" t="s">
+        <v>18</v>
+      </c>
+      <c r="C89" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" t="s">
+        <v>19</v>
+      </c>
+      <c r="E89" t="s">
         <v>53</v>
       </c>
-      <c r="C89" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89" t="s">
-        <v>46</v>
-      </c>
-      <c r="E89" t="s">
-        <v>54</v>
-      </c>
       <c r="F89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G89" t="n">
         <v>2013</v>
@@ -3016,22 +3175,22 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>8843</v>
+        <v>98</v>
       </c>
       <c r="B90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C90" t="s">
         <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="E90" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G90" t="n">
         <v>2013</v>
@@ -3042,22 +3201,22 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>9645</v>
+        <v>10579</v>
       </c>
       <c r="B91" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C91" t="s">
         <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E91" t="s">
         <v>56</v>
       </c>
       <c r="F91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G91" t="n">
         <v>2013</v>
@@ -3068,22 +3227,22 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>10753</v>
+        <v>9192</v>
       </c>
       <c r="B92" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C92" t="s">
         <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E92" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G92" t="n">
         <v>2013</v>
@@ -3094,22 +3253,22 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>10754</v>
+        <v>10660</v>
       </c>
       <c r="B93" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="C93" t="s">
         <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E93" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="F93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G93" t="n">
         <v>2013</v>
@@ -3120,22 +3279,22 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>10755</v>
+        <v>8843</v>
       </c>
       <c r="B94" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="C94" t="s">
         <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E94" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="F94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G94" t="n">
         <v>2013</v>
@@ -3146,7 +3305,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>753</v>
+        <v>9645</v>
       </c>
       <c r="B95" t="s">
         <v>24</v>
@@ -3155,13 +3314,13 @@
         <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E95" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G95" t="n">
         <v>2013</v>
@@ -3172,22 +3331,22 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>10221</v>
+        <v>10753</v>
       </c>
       <c r="B96" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="C96" t="s">
         <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E96" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="F96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G96" t="n">
         <v>2013</v>
@@ -3198,22 +3357,22 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>9646</v>
+        <v>10754</v>
       </c>
       <c r="B97" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="C97" t="s">
         <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E97" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="F97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G97" t="n">
         <v>2013</v>
@@ -3224,22 +3383,22 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>6082</v>
+        <v>10755</v>
       </c>
       <c r="B98" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="C98" t="s">
         <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E98" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="F98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G98" t="n">
         <v>2013</v>
@@ -3250,22 +3409,22 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>6089</v>
+        <v>753</v>
       </c>
       <c r="B99" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C99" t="s">
         <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E99" t="s">
         <v>61</v>
       </c>
       <c r="F99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G99" t="n">
         <v>2013</v>
@@ -3276,22 +3435,22 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>9647</v>
+        <v>10221</v>
       </c>
       <c r="B100" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C100" t="s">
         <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E100" t="s">
         <v>62</v>
       </c>
       <c r="F100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G100" t="n">
         <v>2013</v>
@@ -3302,22 +3461,22 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>9648</v>
+        <v>9646</v>
       </c>
       <c r="B101" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C101" t="s">
         <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E101" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G101" t="n">
         <v>2013</v>
@@ -3328,22 +3487,22 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>9649</v>
+        <v>6082</v>
       </c>
       <c r="B102" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C102" t="s">
         <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E102" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G102" t="n">
         <v>2013</v>
@@ -3354,22 +3513,22 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>9650</v>
+        <v>6089</v>
       </c>
       <c r="B103" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C103" t="s">
         <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E103" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G103" t="n">
         <v>2013</v>
@@ -3380,22 +3539,22 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>9652</v>
+        <v>9647</v>
       </c>
       <c r="B104" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C104" t="s">
         <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E104" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G104" t="n">
         <v>2013</v>
@@ -3406,22 +3565,22 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>748</v>
+        <v>9648</v>
       </c>
       <c r="B105" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C105" t="s">
         <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E105" t="s">
         <v>68</v>
       </c>
       <c r="F105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G105" t="n">
         <v>2013</v>
@@ -3432,22 +3591,22 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>10136</v>
+        <v>9649</v>
       </c>
       <c r="B106" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C106" t="s">
         <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E106" t="s">
         <v>69</v>
       </c>
       <c r="F106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G106" t="n">
         <v>2013</v>
@@ -3458,22 +3617,22 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>745</v>
+        <v>9650</v>
       </c>
       <c r="B107" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C107" t="s">
         <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E107" t="s">
         <v>70</v>
       </c>
       <c r="F107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G107" t="n">
         <v>2013</v>
@@ -3484,22 +3643,22 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>10659</v>
+        <v>9652</v>
       </c>
       <c r="B108" t="s">
+        <v>37</v>
+      </c>
+      <c r="C108" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" t="s">
+        <v>48</v>
+      </c>
+      <c r="E108" t="s">
         <v>71</v>
       </c>
-      <c r="C108" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108" t="s">
-        <v>46</v>
-      </c>
-      <c r="E108" t="s">
-        <v>72</v>
-      </c>
       <c r="F108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G108" t="n">
         <v>2013</v>
@@ -3510,22 +3669,22 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>10756</v>
+        <v>748</v>
       </c>
       <c r="B109" t="s">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="C109" t="s">
         <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E109" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="F109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G109" t="n">
         <v>2013</v>
@@ -3536,22 +3695,22 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>10825</v>
+        <v>10136</v>
       </c>
       <c r="B110" t="s">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="C110" t="s">
         <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E110" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="F110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G110" t="n">
         <v>2013</v>
@@ -3562,22 +3721,22 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>10826</v>
+        <v>745</v>
       </c>
       <c r="B111" t="s">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="C111" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E111" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="F111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G111" t="n">
         <v>2013</v>
@@ -3588,22 +3747,22 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>6083</v>
+        <v>10659</v>
       </c>
       <c r="B112" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="C112" t="s">
         <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E112" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G112" t="n">
         <v>2013</v>
@@ -3614,22 +3773,22 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>9401</v>
+        <v>10756</v>
       </c>
       <c r="B113" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="C113" t="s">
         <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E113" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="F113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G113" t="n">
         <v>2013</v>
@@ -3640,22 +3799,22 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>9653</v>
+        <v>10825</v>
       </c>
       <c r="B114" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="C114" t="s">
         <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E114" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="F114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G114" t="n">
         <v>2013</v>
@@ -3666,22 +3825,22 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>10827</v>
+        <v>10826</v>
       </c>
       <c r="B115" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C115" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D115" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E115" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G115" t="n">
         <v>2013</v>
@@ -3692,22 +3851,22 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>9651</v>
+        <v>6083</v>
       </c>
       <c r="B116" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C116" t="s">
         <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E116" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G116" t="n">
         <v>2013</v>
@@ -3718,22 +3877,22 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>10105</v>
+        <v>9401</v>
       </c>
       <c r="B117" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="C117" t="s">
         <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E117" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G117" t="n">
         <v>2013</v>
@@ -3744,22 +3903,22 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>10111</v>
+        <v>9653</v>
       </c>
       <c r="B118" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C118" t="s">
         <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E118" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G118" t="n">
         <v>2013</v>
@@ -3770,22 +3929,22 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>10609</v>
+        <v>10827</v>
       </c>
       <c r="B119" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>98</v>
       </c>
       <c r="D119" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E119" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="F119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G119" t="n">
         <v>2013</v>
@@ -3796,126 +3955,126 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>98</v>
+        <v>9651</v>
       </c>
       <c r="B120" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="C120" t="s">
         <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="E120" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="F120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G120" t="n">
+        <v>2013</v>
+      </c>
+      <c r="H120" t="n">
         <v>2014</v>
-      </c>
-      <c r="H120" t="n">
-        <v>2015</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>9192</v>
+        <v>10105</v>
       </c>
       <c r="B121" t="s">
+        <v>15</v>
+      </c>
+      <c r="C121" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" t="s">
+        <v>51</v>
+      </c>
+      <c r="E121" t="s">
         <v>81</v>
       </c>
-      <c r="C121" t="s">
-        <v>9</v>
-      </c>
-      <c r="D121" t="s">
-        <v>46</v>
-      </c>
-      <c r="E121" t="s">
-        <v>82</v>
-      </c>
       <c r="F121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G121" t="n">
+        <v>2013</v>
+      </c>
+      <c r="H121" t="n">
         <v>2014</v>
-      </c>
-      <c r="H121" t="n">
-        <v>2015</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>10660</v>
+        <v>10111</v>
       </c>
       <c r="B122" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C122" t="s">
         <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E122" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="F122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G122" t="n">
+        <v>2013</v>
+      </c>
+      <c r="H122" t="n">
         <v>2014</v>
-      </c>
-      <c r="H122" t="n">
-        <v>2015</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>8843</v>
+        <v>10609</v>
       </c>
       <c r="B123" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="C123" t="s">
         <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E123" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="F123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G123" t="n">
+        <v>2013</v>
+      </c>
+      <c r="H123" t="n">
         <v>2014</v>
-      </c>
-      <c r="H123" t="n">
-        <v>2015</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>9645</v>
+        <v>98</v>
       </c>
       <c r="B124" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C124" t="s">
         <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="E124" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G124" t="n">
         <v>2014</v>
@@ -3926,22 +4085,22 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>10753</v>
+        <v>10579</v>
       </c>
       <c r="B125" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="C125" t="s">
         <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E125" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="F125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G125" t="n">
         <v>2014</v>
@@ -3952,7 +4111,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>10754</v>
+        <v>9192</v>
       </c>
       <c r="B126" t="s">
         <v>85</v>
@@ -3961,13 +4120,13 @@
         <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E126" t="s">
         <v>86</v>
       </c>
       <c r="F126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G126" t="n">
         <v>2014</v>
@@ -3978,22 +4137,22 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>10755</v>
+        <v>10660</v>
       </c>
       <c r="B127" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="C127" t="s">
         <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E127" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="F127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G127" t="n">
         <v>2014</v>
@@ -4004,22 +4163,22 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>753</v>
+        <v>8843</v>
       </c>
       <c r="B128" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C128" t="s">
         <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E128" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G128" t="n">
         <v>2014</v>
@@ -4030,22 +4189,22 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>10221</v>
+        <v>9645</v>
       </c>
       <c r="B129" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="C129" t="s">
         <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E129" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G129" t="n">
         <v>2014</v>
@@ -4056,22 +4215,22 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>9646</v>
+        <v>10753</v>
       </c>
       <c r="B130" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="C130" t="s">
         <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E130" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="F130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G130" t="n">
         <v>2014</v>
@@ -4082,22 +4241,22 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>6082</v>
+        <v>10754</v>
       </c>
       <c r="B131" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="C131" t="s">
         <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E131" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G131" t="n">
         <v>2014</v>
@@ -4108,22 +4267,22 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>6089</v>
+        <v>10755</v>
       </c>
       <c r="B132" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="C132" t="s">
         <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E132" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="F132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G132" t="n">
         <v>2014</v>
@@ -4134,22 +4293,22 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>9647</v>
+        <v>753</v>
       </c>
       <c r="B133" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C133" t="s">
         <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E133" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G133" t="n">
         <v>2014</v>
@@ -4160,22 +4319,22 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>9441</v>
+        <v>10221</v>
       </c>
       <c r="B134" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="C134" t="s">
         <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E134" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G134" t="n">
         <v>2014</v>
@@ -4186,22 +4345,22 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>9648</v>
+        <v>9646</v>
       </c>
       <c r="B135" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C135" t="s">
         <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E135" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G135" t="n">
         <v>2014</v>
@@ -4212,22 +4371,22 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>9649</v>
+        <v>6082</v>
       </c>
       <c r="B136" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C136" t="s">
         <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E136" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G136" t="n">
         <v>2014</v>
@@ -4238,22 +4397,22 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>9650</v>
+        <v>6089</v>
       </c>
       <c r="B137" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C137" t="s">
         <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E137" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G137" t="n">
         <v>2014</v>
@@ -4264,22 +4423,22 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>9652</v>
+        <v>9647</v>
       </c>
       <c r="B138" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C138" t="s">
         <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E138" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G138" t="n">
         <v>2014</v>
@@ -4290,22 +4449,22 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>11466</v>
+        <v>9441</v>
       </c>
       <c r="B139" t="s">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="C139" t="s">
         <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E139" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="F139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G139" t="n">
         <v>2014</v>
@@ -4316,22 +4475,22 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>748</v>
+        <v>9648</v>
       </c>
       <c r="B140" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C140" t="s">
         <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E140" t="s">
         <v>68</v>
       </c>
       <c r="F140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G140" t="n">
         <v>2014</v>
@@ -4342,22 +4501,22 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>10136</v>
+        <v>9649</v>
       </c>
       <c r="B141" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C141" t="s">
         <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E141" t="s">
         <v>69</v>
       </c>
       <c r="F141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G141" t="n">
         <v>2014</v>
@@ -4368,22 +4527,22 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>745</v>
+        <v>9650</v>
       </c>
       <c r="B142" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C142" t="s">
         <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E142" t="s">
         <v>70</v>
       </c>
       <c r="F142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G142" t="n">
         <v>2014</v>
@@ -4394,22 +4553,22 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>10991</v>
+        <v>9652</v>
       </c>
       <c r="B143" t="s">
+        <v>37</v>
+      </c>
+      <c r="C143" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" t="s">
+        <v>48</v>
+      </c>
+      <c r="E143" t="s">
         <v>71</v>
       </c>
-      <c r="C143" t="s">
-        <v>94</v>
-      </c>
-      <c r="D143" t="s">
-        <v>46</v>
-      </c>
-      <c r="E143" t="s">
-        <v>72</v>
-      </c>
       <c r="F143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G143" t="n">
         <v>2014</v>
@@ -4420,22 +4579,22 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>10756</v>
+        <v>11466</v>
       </c>
       <c r="B144" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="C144" t="s">
         <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E144" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="F144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G144" t="n">
         <v>2014</v>
@@ -4446,22 +4605,22 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>10825</v>
+        <v>748</v>
       </c>
       <c r="B145" t="s">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="C145" t="s">
         <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E145" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="F145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G145" t="n">
         <v>2014</v>
@@ -4472,22 +4631,22 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>10826</v>
+        <v>10136</v>
       </c>
       <c r="B146" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="C146" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E146" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="F146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G146" t="n">
         <v>2014</v>
@@ -4498,22 +4657,22 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>6083</v>
+        <v>745</v>
       </c>
       <c r="B147" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C147" t="s">
         <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E147" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G147" t="n">
         <v>2014</v>
@@ -4524,22 +4683,22 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>9401</v>
+        <v>10991</v>
       </c>
       <c r="B148" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>98</v>
       </c>
       <c r="D148" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E148" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G148" t="n">
         <v>2014</v>
@@ -4550,22 +4709,22 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>9653</v>
+        <v>10756</v>
       </c>
       <c r="B149" t="s">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="C149" t="s">
         <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E149" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="F149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G149" t="n">
         <v>2014</v>
@@ -4576,22 +4735,22 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>11438</v>
+        <v>10825</v>
       </c>
       <c r="B150" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C150" t="s">
         <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E150" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G150" t="n">
         <v>2014</v>
@@ -4602,22 +4761,22 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>10827</v>
+        <v>10826</v>
       </c>
       <c r="B151" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C151" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D151" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E151" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G151" t="n">
         <v>2014</v>
@@ -4628,22 +4787,22 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>9651</v>
+        <v>6083</v>
       </c>
       <c r="B152" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C152" t="s">
         <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E152" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G152" t="n">
         <v>2014</v>
@@ -4654,22 +4813,22 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>10105</v>
+        <v>9401</v>
       </c>
       <c r="B153" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="C153" t="s">
         <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E153" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G153" t="n">
         <v>2014</v>
@@ -4680,22 +4839,22 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>10111</v>
+        <v>9653</v>
       </c>
       <c r="B154" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C154" t="s">
         <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E154" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G154" t="n">
         <v>2014</v>
@@ -4706,22 +4865,22 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>10609</v>
+        <v>11438</v>
       </c>
       <c r="B155" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="C155" t="s">
         <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E155" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="F155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G155" t="n">
         <v>2014</v>
@@ -4732,152 +4891,152 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>9192</v>
+        <v>10827</v>
       </c>
       <c r="B156" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>98</v>
       </c>
       <c r="D156" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="E156" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="F156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G156" t="n">
+        <v>2014</v>
+      </c>
+      <c r="H156" t="n">
         <v>2015</v>
-      </c>
-      <c r="H156" t="n">
-        <v>2016</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>8843</v>
+        <v>9651</v>
       </c>
       <c r="B157" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="C157" t="s">
         <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="E157" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="F157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G157" t="n">
+        <v>2014</v>
+      </c>
+      <c r="H157" t="n">
         <v>2015</v>
-      </c>
-      <c r="H157" t="n">
-        <v>2016</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>9645</v>
+        <v>10105</v>
       </c>
       <c r="B158" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C158" t="s">
         <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>103</v>
+        <v>51</v>
       </c>
       <c r="E158" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="F158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G158" t="n">
+        <v>2014</v>
+      </c>
+      <c r="H158" t="n">
         <v>2015</v>
-      </c>
-      <c r="H158" t="n">
-        <v>2016</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>11634</v>
+        <v>10111</v>
       </c>
       <c r="B159" t="s">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="C159" t="s">
         <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>103</v>
+        <v>51</v>
       </c>
       <c r="E159" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="F159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G159" t="n">
+        <v>2014</v>
+      </c>
+      <c r="H159" t="n">
         <v>2015</v>
-      </c>
-      <c r="H159" t="n">
-        <v>2016</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>10754</v>
+        <v>10609</v>
       </c>
       <c r="B160" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C160" t="s">
         <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="E160" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G160" t="n">
+        <v>2014</v>
+      </c>
+      <c r="H160" t="n">
         <v>2015</v>
-      </c>
-      <c r="H160" t="n">
-        <v>2016</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>10660</v>
+        <v>9192</v>
       </c>
       <c r="B161" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="C161" t="s">
         <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E161" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="F161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G161" t="n">
         <v>2015</v>
@@ -4888,22 +5047,22 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>753</v>
+        <v>8843</v>
       </c>
       <c r="B162" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C162" t="s">
         <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E162" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G162" t="n">
         <v>2015</v>
@@ -4914,22 +5073,22 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>10221</v>
+        <v>9645</v>
       </c>
       <c r="B163" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="C163" t="s">
         <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E163" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G163" t="n">
         <v>2015</v>
@@ -4940,22 +5099,22 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>9646</v>
+        <v>11634</v>
       </c>
       <c r="B164" t="s">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="C164" t="s">
         <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E164" t="s">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="F164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G164" t="n">
         <v>2015</v>
@@ -4966,22 +5125,22 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>6082</v>
+        <v>10754</v>
       </c>
       <c r="B165" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="C165" t="s">
         <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E165" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G165" t="n">
         <v>2015</v>
@@ -4992,22 +5151,22 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>6089</v>
+        <v>10660</v>
       </c>
       <c r="B166" t="s">
-        <v>28</v>
+        <v>110</v>
       </c>
       <c r="C166" t="s">
         <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E166" t="s">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="F166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G166" t="n">
         <v>2015</v>
@@ -5018,22 +5177,22 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>9647</v>
+        <v>753</v>
       </c>
       <c r="B167" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C167" t="s">
         <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E167" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G167" t="n">
         <v>2015</v>
@@ -5044,22 +5203,22 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>9441</v>
+        <v>10221</v>
       </c>
       <c r="B168" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="C168" t="s">
         <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E168" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F168" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G168" t="n">
         <v>2015</v>
@@ -5070,22 +5229,22 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>9648</v>
+        <v>9646</v>
       </c>
       <c r="B169" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C169" t="s">
         <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E169" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F169" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G169" t="n">
         <v>2015</v>
@@ -5096,22 +5255,22 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>9649</v>
+        <v>6082</v>
       </c>
       <c r="B170" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C170" t="s">
         <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E170" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F170" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G170" t="n">
         <v>2015</v>
@@ -5122,22 +5281,22 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>9650</v>
+        <v>6089</v>
       </c>
       <c r="B171" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C171" t="s">
         <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E171" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F171" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G171" t="n">
         <v>2015</v>
@@ -5148,22 +5307,22 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>9652</v>
+        <v>9647</v>
       </c>
       <c r="B172" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C172" t="s">
         <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E172" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F172" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G172" t="n">
         <v>2015</v>
@@ -5174,22 +5333,22 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>11466</v>
+        <v>9441</v>
       </c>
       <c r="B173" t="s">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="C173" t="s">
         <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E173" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="F173" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G173" t="n">
         <v>2015</v>
@@ -5200,22 +5359,22 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>748</v>
+        <v>9648</v>
       </c>
       <c r="B174" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C174" t="s">
         <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E174" t="s">
         <v>68</v>
       </c>
       <c r="F174" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G174" t="n">
         <v>2015</v>
@@ -5226,22 +5385,22 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>10136</v>
+        <v>9649</v>
       </c>
       <c r="B175" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C175" t="s">
         <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E175" t="s">
         <v>69</v>
       </c>
       <c r="F175" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G175" t="n">
         <v>2015</v>
@@ -5252,22 +5411,22 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>745</v>
+        <v>9650</v>
       </c>
       <c r="B176" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C176" t="s">
         <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E176" t="s">
         <v>70</v>
       </c>
       <c r="F176" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G176" t="n">
         <v>2015</v>
@@ -5278,22 +5437,22 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>10825</v>
+        <v>9652</v>
       </c>
       <c r="B177" t="s">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="C177" t="s">
         <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E177" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="F177" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G177" t="n">
         <v>2015</v>
@@ -5304,22 +5463,22 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>10755</v>
+        <v>11466</v>
       </c>
       <c r="B178" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C178" t="s">
         <v>9</v>
       </c>
       <c r="D178" t="s">
+        <v>107</v>
+      </c>
+      <c r="E178" t="s">
         <v>103</v>
       </c>
-      <c r="E178" t="s">
-        <v>109</v>
-      </c>
       <c r="F178" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G178" t="n">
         <v>2015</v>
@@ -5330,22 +5489,22 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>6083</v>
+        <v>748</v>
       </c>
       <c r="B179" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C179" t="s">
         <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E179" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F179" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G179" t="n">
         <v>2015</v>
@@ -5356,22 +5515,22 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>9401</v>
+        <v>10136</v>
       </c>
       <c r="B180" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C180" t="s">
         <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E180" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F180" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G180" t="n">
         <v>2015</v>
@@ -5382,22 +5541,22 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>9653</v>
+        <v>745</v>
       </c>
       <c r="B181" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C181" t="s">
         <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E181" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F181" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G181" t="n">
         <v>2015</v>
@@ -5408,22 +5567,22 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>11438</v>
+        <v>10825</v>
       </c>
       <c r="B182" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C182" t="s">
         <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E182" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F182" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G182" t="n">
         <v>2015</v>
@@ -5434,22 +5593,22 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>9651</v>
+        <v>10755</v>
       </c>
       <c r="B183" t="s">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="C183" t="s">
         <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E183" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="F183" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G183" t="n">
         <v>2015</v>
@@ -5460,22 +5619,22 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>10564</v>
+        <v>6083</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="C184" t="s">
         <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E184" t="s">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="F184" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G184" t="n">
         <v>2015</v>
@@ -5486,22 +5645,22 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>10581</v>
+        <v>9401</v>
       </c>
       <c r="B185" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="C185" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E185" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="F185" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G185" t="n">
         <v>2015</v>
@@ -5512,22 +5671,22 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>10105</v>
+        <v>9653</v>
       </c>
       <c r="B186" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C186" t="s">
         <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="E186" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F186" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G186" t="n">
         <v>2015</v>
@@ -5538,22 +5697,22 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>10111</v>
+        <v>11438</v>
       </c>
       <c r="B187" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="C187" t="s">
         <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="E187" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="F187" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G187" t="n">
         <v>2015</v>
@@ -5564,22 +5723,22 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>10609</v>
+        <v>9651</v>
       </c>
       <c r="B188" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="C188" t="s">
         <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="E188" t="s">
         <v>80</v>
       </c>
       <c r="F188" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G188" t="n">
         <v>2015</v>
@@ -5590,230 +5749,230 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>10660</v>
+        <v>10564</v>
       </c>
       <c r="B189" t="s">
-        <v>106</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
         <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E189" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F189" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G189" t="n">
+        <v>2015</v>
+      </c>
+      <c r="H189" t="n">
         <v>2016</v>
-      </c>
-      <c r="H189" t="n">
-        <v>2017</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>11827</v>
+        <v>11620</v>
       </c>
       <c r="B190" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C190" t="s">
         <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E190" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F190" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G190" t="n">
+        <v>2015</v>
+      </c>
+      <c r="H190" t="n">
         <v>2016</v>
-      </c>
-      <c r="H190" t="n">
-        <v>2017</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>11826</v>
+        <v>11621</v>
       </c>
       <c r="B191" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C191" t="s">
         <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E191" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F191" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G191" t="n">
+        <v>2015</v>
+      </c>
+      <c r="H191" t="n">
         <v>2016</v>
-      </c>
-      <c r="H191" t="n">
-        <v>2017</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>11828</v>
+        <v>11622</v>
       </c>
       <c r="B192" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C192" t="s">
         <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E192" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F192" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G192" t="n">
+        <v>2015</v>
+      </c>
+      <c r="H192" t="n">
         <v>2016</v>
-      </c>
-      <c r="H192" t="n">
-        <v>2017</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>9652</v>
+        <v>10581</v>
       </c>
       <c r="B193" t="s">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="C193" t="s">
-        <v>9</v>
+        <v>98</v>
       </c>
       <c r="D193" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E193" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F193" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G193" t="n">
+        <v>2015</v>
+      </c>
+      <c r="H193" t="n">
         <v>2016</v>
-      </c>
-      <c r="H193" t="n">
-        <v>2017</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>11820</v>
+        <v>10105</v>
       </c>
       <c r="B194" t="s">
-        <v>121</v>
+        <v>15</v>
       </c>
       <c r="C194" t="s">
         <v>9</v>
       </c>
       <c r="D194" t="s">
-        <v>103</v>
+        <v>51</v>
       </c>
       <c r="E194" t="s">
-        <v>122</v>
+        <v>81</v>
       </c>
       <c r="F194" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G194" t="n">
+        <v>2015</v>
+      </c>
+      <c r="H194" t="n">
         <v>2016</v>
-      </c>
-      <c r="H194" t="n">
-        <v>2017</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>11859</v>
+        <v>10111</v>
       </c>
       <c r="B195" t="s">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="C195" t="s">
         <v>9</v>
       </c>
       <c r="D195" t="s">
-        <v>103</v>
+        <v>51</v>
       </c>
       <c r="E195" t="s">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="F195" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G195" t="n">
+        <v>2015</v>
+      </c>
+      <c r="H195" t="n">
         <v>2016</v>
-      </c>
-      <c r="H195" t="n">
-        <v>2017</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>11824</v>
+        <v>10609</v>
       </c>
       <c r="B196" t="s">
-        <v>125</v>
+        <v>83</v>
       </c>
       <c r="C196" t="s">
         <v>9</v>
       </c>
       <c r="D196" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="E196" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="F196" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G196" t="n">
+        <v>2015</v>
+      </c>
+      <c r="H196" t="n">
         <v>2016</v>
-      </c>
-      <c r="H196" t="n">
-        <v>2017</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>11466</v>
+        <v>10660</v>
       </c>
       <c r="B197" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="C197" t="s">
         <v>9</v>
       </c>
       <c r="D197" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E197" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="F197" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G197" t="n">
         <v>2016</v>
@@ -5824,22 +5983,22 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>748</v>
+        <v>11827</v>
       </c>
       <c r="B198" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="C198" t="s">
         <v>9</v>
       </c>
       <c r="D198" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E198" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F198" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G198" t="n">
         <v>2016</v>
@@ -5850,22 +6009,22 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>745</v>
+        <v>11826</v>
       </c>
       <c r="B199" t="s">
-        <v>37</v>
+        <v>125</v>
       </c>
       <c r="C199" t="s">
         <v>9</v>
       </c>
       <c r="D199" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E199" t="s">
-        <v>70</v>
+        <v>126</v>
       </c>
       <c r="F199" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G199" t="n">
         <v>2016</v>
@@ -5876,22 +6035,22 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>11823</v>
+        <v>11828</v>
       </c>
       <c r="B200" t="s">
+        <v>127</v>
+      </c>
+      <c r="C200" t="s">
+        <v>9</v>
+      </c>
+      <c r="D200" t="s">
+        <v>107</v>
+      </c>
+      <c r="E200" t="s">
         <v>128</v>
       </c>
-      <c r="C200" t="s">
-        <v>9</v>
-      </c>
-      <c r="D200" t="s">
-        <v>103</v>
-      </c>
-      <c r="E200" t="s">
-        <v>129</v>
-      </c>
       <c r="F200" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G200" t="n">
         <v>2016</v>
@@ -5902,22 +6061,22 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>10825</v>
+        <v>9652</v>
       </c>
       <c r="B201" t="s">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="C201" t="s">
         <v>9</v>
       </c>
       <c r="D201" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E201" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="F201" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G201" t="n">
         <v>2016</v>
@@ -5928,22 +6087,22 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>11815</v>
+        <v>11820</v>
       </c>
       <c r="B202" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C202" t="s">
         <v>9</v>
       </c>
       <c r="D202" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E202" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F202" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G202" t="n">
         <v>2016</v>
@@ -5954,22 +6113,22 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>11814</v>
+        <v>11859</v>
       </c>
       <c r="B203" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C203" t="s">
         <v>9</v>
       </c>
       <c r="D203" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E203" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F203" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G203" t="n">
         <v>2016</v>
@@ -5980,22 +6139,22 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>11811</v>
+        <v>11824</v>
       </c>
       <c r="B204" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C204" t="s">
         <v>9</v>
       </c>
       <c r="D204" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E204" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F204" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G204" t="n">
         <v>2016</v>
@@ -6006,22 +6165,22 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>11812</v>
+        <v>11466</v>
       </c>
       <c r="B205" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="C205" t="s">
         <v>9</v>
       </c>
       <c r="D205" t="s">
+        <v>107</v>
+      </c>
+      <c r="E205" t="s">
         <v>103</v>
       </c>
-      <c r="E205" t="s">
-        <v>137</v>
-      </c>
       <c r="F205" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G205" t="n">
         <v>2016</v>
@@ -6032,22 +6191,22 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>11809</v>
+        <v>748</v>
       </c>
       <c r="B206" t="s">
-        <v>138</v>
+        <v>38</v>
       </c>
       <c r="C206" t="s">
         <v>9</v>
       </c>
       <c r="D206" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E206" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F206" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G206" t="n">
         <v>2016</v>
@@ -6058,22 +6217,22 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>11810</v>
+        <v>745</v>
       </c>
       <c r="B207" t="s">
-        <v>140</v>
+        <v>39</v>
       </c>
       <c r="C207" t="s">
         <v>9</v>
       </c>
       <c r="D207" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E207" t="s">
-        <v>141</v>
+        <v>74</v>
       </c>
       <c r="F207" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G207" t="n">
         <v>2016</v>
@@ -6084,22 +6243,22 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>10564</v>
+        <v>11823</v>
       </c>
       <c r="B208" t="s">
-        <v>8</v>
+        <v>138</v>
       </c>
       <c r="C208" t="s">
         <v>9</v>
       </c>
       <c r="D208" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E208" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="F208" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G208" t="n">
         <v>2016</v>
@@ -6110,22 +6269,22 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>10581</v>
+        <v>10825</v>
       </c>
       <c r="B209" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="C209" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D209" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E209" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F209" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G209" t="n">
         <v>2016</v>
@@ -6136,22 +6295,22 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>10105</v>
+        <v>11815</v>
       </c>
       <c r="B210" t="s">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="C210" t="s">
         <v>9</v>
       </c>
       <c r="D210" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="E210" t="s">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="F210" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G210" t="n">
         <v>2016</v>
@@ -6162,22 +6321,22 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>10609</v>
+        <v>11814</v>
       </c>
       <c r="B211" t="s">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="C211" t="s">
         <v>9</v>
       </c>
       <c r="D211" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="E211" t="s">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="F211" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G211" t="n">
         <v>2016</v>
@@ -6188,308 +6347,308 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>10660</v>
+        <v>11811</v>
       </c>
       <c r="B212" t="s">
-        <v>106</v>
+        <v>144</v>
       </c>
       <c r="C212" t="s">
         <v>9</v>
       </c>
       <c r="D212" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E212" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="F212" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G212" t="n">
+        <v>2016</v>
+      </c>
+      <c r="H212" t="n">
         <v>2017</v>
-      </c>
-      <c r="H212" t="n">
-        <v>2018</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>11827</v>
+        <v>11812</v>
       </c>
       <c r="B213" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="C213" t="s">
         <v>9</v>
       </c>
       <c r="D213" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E213" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="F213" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G213" t="n">
+        <v>2016</v>
+      </c>
+      <c r="H213" t="n">
         <v>2017</v>
-      </c>
-      <c r="H213" t="n">
-        <v>2018</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>11826</v>
+        <v>11809</v>
       </c>
       <c r="B214" t="s">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="C214" t="s">
         <v>9</v>
       </c>
       <c r="D214" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E214" t="s">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="F214" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G214" t="n">
+        <v>2016</v>
+      </c>
+      <c r="H214" t="n">
         <v>2017</v>
-      </c>
-      <c r="H214" t="n">
-        <v>2018</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>11828</v>
+        <v>11810</v>
       </c>
       <c r="B215" t="s">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="C215" t="s">
         <v>9</v>
       </c>
       <c r="D215" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E215" t="s">
-        <v>118</v>
+        <v>151</v>
       </c>
       <c r="F215" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G215" t="n">
+        <v>2016</v>
+      </c>
+      <c r="H215" t="n">
         <v>2017</v>
-      </c>
-      <c r="H215" t="n">
-        <v>2018</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>9652</v>
+        <v>10564</v>
       </c>
       <c r="B216" t="s">
-        <v>119</v>
+        <v>8</v>
       </c>
       <c r="C216" t="s">
         <v>9</v>
       </c>
       <c r="D216" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E216" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F216" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G216" t="n">
+        <v>2016</v>
+      </c>
+      <c r="H216" t="n">
         <v>2017</v>
-      </c>
-      <c r="H216" t="n">
-        <v>2018</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>11820</v>
+        <v>11620</v>
       </c>
       <c r="B217" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C217" t="s">
         <v>9</v>
       </c>
       <c r="D217" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E217" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F217" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G217" t="n">
+        <v>2016</v>
+      </c>
+      <c r="H217" t="n">
         <v>2017</v>
-      </c>
-      <c r="H217" t="n">
-        <v>2018</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>11859</v>
+        <v>11621</v>
       </c>
       <c r="B218" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C218" t="s">
         <v>9</v>
       </c>
       <c r="D218" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E218" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F218" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G218" t="n">
+        <v>2016</v>
+      </c>
+      <c r="H218" t="n">
         <v>2017</v>
-      </c>
-      <c r="H218" t="n">
-        <v>2018</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>11824</v>
+        <v>11622</v>
       </c>
       <c r="B219" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C219" t="s">
         <v>9</v>
       </c>
       <c r="D219" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E219" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F219" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G219" t="n">
+        <v>2016</v>
+      </c>
+      <c r="H219" t="n">
         <v>2017</v>
-      </c>
-      <c r="H219" t="n">
-        <v>2018</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>748</v>
+        <v>10581</v>
       </c>
       <c r="B220" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C220" t="s">
-        <v>9</v>
+        <v>98</v>
       </c>
       <c r="D220" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E220" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F220" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G220" t="n">
+        <v>2016</v>
+      </c>
+      <c r="H220" t="n">
         <v>2017</v>
-      </c>
-      <c r="H220" t="n">
-        <v>2018</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>745</v>
+        <v>10105</v>
       </c>
       <c r="B221" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="C221" t="s">
         <v>9</v>
       </c>
       <c r="D221" t="s">
-        <v>103</v>
+        <v>51</v>
       </c>
       <c r="E221" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="F221" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G221" t="n">
+        <v>2016</v>
+      </c>
+      <c r="H221" t="n">
         <v>2017</v>
-      </c>
-      <c r="H221" t="n">
-        <v>2018</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>11823</v>
+        <v>10609</v>
       </c>
       <c r="B222" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="C222" t="s">
         <v>9</v>
       </c>
       <c r="D222" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="E222" t="s">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="F222" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G222" t="n">
+        <v>2016</v>
+      </c>
+      <c r="H222" t="n">
         <v>2017</v>
-      </c>
-      <c r="H222" t="n">
-        <v>2018</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>11929</v>
+        <v>10660</v>
       </c>
       <c r="B223" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="C223" t="s">
         <v>9</v>
       </c>
       <c r="D223" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E223" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="F223" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G223" t="n">
         <v>2017</v>
@@ -6500,22 +6659,22 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>11815</v>
+        <v>11827</v>
       </c>
       <c r="B224" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="C224" t="s">
         <v>9</v>
       </c>
       <c r="D224" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E224" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F224" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G224" t="n">
         <v>2017</v>
@@ -6526,22 +6685,22 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>11814</v>
+        <v>11826</v>
       </c>
       <c r="B225" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="C225" t="s">
         <v>9</v>
       </c>
       <c r="D225" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E225" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F225" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G225" t="n">
         <v>2017</v>
@@ -6552,22 +6711,22 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>11811</v>
+        <v>11828</v>
       </c>
       <c r="B226" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C226" t="s">
         <v>9</v>
       </c>
       <c r="D226" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E226" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F226" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G226" t="n">
         <v>2017</v>
@@ -6578,22 +6737,22 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>11812</v>
+        <v>9652</v>
       </c>
       <c r="B227" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C227" t="s">
         <v>9</v>
       </c>
       <c r="D227" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E227" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F227" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G227" t="n">
         <v>2017</v>
@@ -6604,22 +6763,22 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>11809</v>
+        <v>11820</v>
       </c>
       <c r="B228" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C228" t="s">
         <v>9</v>
       </c>
       <c r="D228" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E228" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F228" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G228" t="n">
         <v>2017</v>
@@ -6630,22 +6789,22 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>11810</v>
+        <v>11859</v>
       </c>
       <c r="B229" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C229" t="s">
         <v>9</v>
       </c>
       <c r="D229" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E229" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F229" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G229" t="n">
         <v>2017</v>
@@ -6656,22 +6815,22 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>10564</v>
+        <v>11824</v>
       </c>
       <c r="B230" t="s">
-        <v>8</v>
+        <v>135</v>
       </c>
       <c r="C230" t="s">
         <v>9</v>
       </c>
       <c r="D230" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E230" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="F230" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G230" t="n">
         <v>2017</v>
@@ -6682,22 +6841,22 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>12028</v>
+        <v>748</v>
       </c>
       <c r="B231" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C231" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D231" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E231" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="F231" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G231" t="n">
         <v>2017</v>
@@ -6708,22 +6867,22 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>10105</v>
+        <v>745</v>
       </c>
       <c r="B232" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="C232" t="s">
         <v>9</v>
       </c>
       <c r="D232" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="E232" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F232" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G232" t="n">
         <v>2017</v>
@@ -6734,22 +6893,22 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>10609</v>
+        <v>11823</v>
       </c>
       <c r="B233" t="s">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="C233" t="s">
         <v>9</v>
       </c>
       <c r="D233" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="E233" t="s">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="F233" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G233" t="n">
         <v>2017</v>
@@ -6760,412 +6919,412 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>11912</v>
+        <v>11929</v>
       </c>
       <c r="B234" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C234" t="s">
         <v>9</v>
       </c>
       <c r="D234" t="s">
-        <v>147</v>
+        <v>107</v>
       </c>
       <c r="E234" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="F234" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G234" t="n">
+        <v>2017</v>
+      </c>
+      <c r="H234" t="n">
         <v>2018</v>
-      </c>
-      <c r="H234" t="n">
-        <v>2019</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>11612</v>
+        <v>11815</v>
       </c>
       <c r="B235" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C235" t="s">
         <v>9</v>
       </c>
       <c r="D235" t="s">
-        <v>147</v>
+        <v>107</v>
       </c>
       <c r="E235" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F235" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G235" t="n">
+        <v>2017</v>
+      </c>
+      <c r="H235" t="n">
         <v>2018</v>
-      </c>
-      <c r="H235" t="n">
-        <v>2019</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>12028</v>
+        <v>11814</v>
       </c>
       <c r="B236" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="C236" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D236" t="s">
-        <v>147</v>
+        <v>107</v>
       </c>
       <c r="E236" t="s">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="F236" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G236" t="n">
+        <v>2017</v>
+      </c>
+      <c r="H236" t="n">
         <v>2018</v>
-      </c>
-      <c r="H236" t="n">
-        <v>2019</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>10660</v>
+        <v>11811</v>
       </c>
       <c r="B237" t="s">
-        <v>106</v>
+        <v>144</v>
       </c>
       <c r="C237" t="s">
         <v>9</v>
       </c>
       <c r="D237" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E237" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="F237" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G237" t="n">
+        <v>2017</v>
+      </c>
+      <c r="H237" t="n">
         <v>2018</v>
-      </c>
-      <c r="H237" t="n">
-        <v>2019</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>11827</v>
+        <v>11812</v>
       </c>
       <c r="B238" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="C238" t="s">
         <v>9</v>
       </c>
       <c r="D238" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E238" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="F238" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G238" t="n">
+        <v>2017</v>
+      </c>
+      <c r="H238" t="n">
         <v>2018</v>
-      </c>
-      <c r="H238" t="n">
-        <v>2019</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>11826</v>
+        <v>11809</v>
       </c>
       <c r="B239" t="s">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="C239" t="s">
         <v>9</v>
       </c>
       <c r="D239" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E239" t="s">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="F239" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G239" t="n">
+        <v>2017</v>
+      </c>
+      <c r="H239" t="n">
         <v>2018</v>
-      </c>
-      <c r="H239" t="n">
-        <v>2019</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>11828</v>
+        <v>11810</v>
       </c>
       <c r="B240" t="s">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="C240" t="s">
         <v>9</v>
       </c>
       <c r="D240" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E240" t="s">
-        <v>118</v>
+        <v>151</v>
       </c>
       <c r="F240" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G240" t="n">
+        <v>2017</v>
+      </c>
+      <c r="H240" t="n">
         <v>2018</v>
-      </c>
-      <c r="H240" t="n">
-        <v>2019</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>9652</v>
+        <v>10564</v>
       </c>
       <c r="B241" t="s">
-        <v>119</v>
+        <v>8</v>
       </c>
       <c r="C241" t="s">
         <v>9</v>
       </c>
       <c r="D241" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E241" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F241" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G241" t="n">
+        <v>2017</v>
+      </c>
+      <c r="H241" t="n">
         <v>2018</v>
-      </c>
-      <c r="H241" t="n">
-        <v>2019</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>11859</v>
+        <v>11620</v>
       </c>
       <c r="B242" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C242" t="s">
         <v>9</v>
       </c>
       <c r="D242" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E242" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F242" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G242" t="n">
+        <v>2017</v>
+      </c>
+      <c r="H242" t="n">
         <v>2018</v>
-      </c>
-      <c r="H242" t="n">
-        <v>2019</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>11820</v>
+        <v>11963</v>
       </c>
       <c r="B243" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C243" t="s">
         <v>9</v>
       </c>
       <c r="D243" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E243" t="s">
-        <v>122</v>
+        <v>157</v>
       </c>
       <c r="F243" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G243" t="n">
+        <v>2017</v>
+      </c>
+      <c r="H243" t="n">
         <v>2018</v>
-      </c>
-      <c r="H243" t="n">
-        <v>2019</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>11824</v>
+        <v>11621</v>
       </c>
       <c r="B244" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C244" t="s">
         <v>9</v>
       </c>
       <c r="D244" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E244" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F244" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G244" t="n">
+        <v>2017</v>
+      </c>
+      <c r="H244" t="n">
         <v>2018</v>
-      </c>
-      <c r="H244" t="n">
-        <v>2019</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>748</v>
+        <v>11622</v>
       </c>
       <c r="B245" t="s">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="C245" t="s">
         <v>9</v>
       </c>
       <c r="D245" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E245" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F245" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G245" t="n">
+        <v>2017</v>
+      </c>
+      <c r="H245" t="n">
         <v>2018</v>
-      </c>
-      <c r="H245" t="n">
-        <v>2019</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>745</v>
+        <v>12028</v>
       </c>
       <c r="B246" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="C246" t="s">
-        <v>9</v>
+        <v>98</v>
       </c>
       <c r="D246" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E246" t="s">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="F246" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G246" t="n">
+        <v>2017</v>
+      </c>
+      <c r="H246" t="n">
         <v>2018</v>
-      </c>
-      <c r="H246" t="n">
-        <v>2019</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>10659</v>
+        <v>10105</v>
       </c>
       <c r="B247" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="C247" t="s">
         <v>9</v>
       </c>
       <c r="D247" t="s">
-        <v>103</v>
+        <v>51</v>
       </c>
       <c r="E247" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F247" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G247" t="n">
+        <v>2017</v>
+      </c>
+      <c r="H247" t="n">
         <v>2018</v>
-      </c>
-      <c r="H247" t="n">
-        <v>2019</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>11823</v>
+        <v>10609</v>
       </c>
       <c r="B248" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="C248" t="s">
         <v>9</v>
       </c>
       <c r="D248" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="E248" t="s">
-        <v>152</v>
+        <v>84</v>
       </c>
       <c r="F248" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G248" t="n">
+        <v>2017</v>
+      </c>
+      <c r="H248" t="n">
         <v>2018</v>
-      </c>
-      <c r="H248" t="n">
-        <v>2019</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>11929</v>
+        <v>11912</v>
       </c>
       <c r="B249" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="C249" t="s">
         <v>9</v>
       </c>
       <c r="D249" t="s">
-        <v>103</v>
+        <v>159</v>
       </c>
       <c r="E249" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="F249" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G249" t="n">
         <v>2018</v>
@@ -7176,22 +7335,22 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>11815</v>
+        <v>11612</v>
       </c>
       <c r="B250" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="C250" t="s">
         <v>9</v>
       </c>
       <c r="D250" t="s">
-        <v>103</v>
+        <v>159</v>
       </c>
       <c r="E250" t="s">
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="F250" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G250" t="n">
         <v>2018</v>
@@ -7202,22 +7361,22 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>11814</v>
+        <v>12028</v>
       </c>
       <c r="B251" t="s">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="C251" t="s">
-        <v>9</v>
+        <v>98</v>
       </c>
       <c r="D251" t="s">
-        <v>103</v>
+        <v>159</v>
       </c>
       <c r="E251" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="F251" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G251" t="n">
         <v>2018</v>
@@ -7228,22 +7387,22 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>11811</v>
+        <v>12261</v>
       </c>
       <c r="B252" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="C252" t="s">
         <v>9</v>
       </c>
       <c r="D252" t="s">
-        <v>103</v>
+        <v>159</v>
       </c>
       <c r="E252" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="F252" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G252" t="n">
         <v>2018</v>
@@ -7254,22 +7413,22 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>11812</v>
+        <v>12263</v>
       </c>
       <c r="B253" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="C253" t="s">
         <v>9</v>
       </c>
       <c r="D253" t="s">
-        <v>103</v>
+        <v>159</v>
       </c>
       <c r="E253" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="F253" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G253" t="n">
         <v>2018</v>
@@ -7280,22 +7439,22 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>11809</v>
+        <v>12264</v>
       </c>
       <c r="B254" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="C254" t="s">
         <v>9</v>
       </c>
       <c r="D254" t="s">
-        <v>103</v>
+        <v>159</v>
       </c>
       <c r="E254" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="F254" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G254" t="n">
         <v>2018</v>
@@ -7306,22 +7465,22 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>11810</v>
+        <v>10660</v>
       </c>
       <c r="B255" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="C255" t="s">
         <v>9</v>
       </c>
       <c r="D255" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E255" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="F255" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G255" t="n">
         <v>2018</v>
@@ -7332,22 +7491,22 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>10105</v>
+        <v>11827</v>
       </c>
       <c r="B256" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="C256" t="s">
         <v>9</v>
       </c>
       <c r="D256" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="E256" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="F256" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G256" t="n">
         <v>2018</v>
@@ -7358,22 +7517,22 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>10609</v>
+        <v>11826</v>
       </c>
       <c r="B257" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="C257" t="s">
         <v>9</v>
       </c>
       <c r="D257" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="E257" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="F257" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G257" t="n">
         <v>2018</v>
@@ -7384,490 +7543,490 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>11912</v>
+        <v>11828</v>
       </c>
       <c r="B258" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="C258" t="s">
         <v>9</v>
       </c>
       <c r="D258" t="s">
-        <v>147</v>
+        <v>107</v>
       </c>
       <c r="E258" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="F258" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G258" t="n">
+        <v>2018</v>
+      </c>
+      <c r="H258" t="n">
         <v>2019</v>
-      </c>
-      <c r="H258" t="n">
-        <v>2020</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>11612</v>
+        <v>9652</v>
       </c>
       <c r="B259" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="C259" t="s">
         <v>9</v>
       </c>
       <c r="D259" t="s">
-        <v>147</v>
+        <v>107</v>
       </c>
       <c r="E259" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="F259" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G259" t="n">
+        <v>2018</v>
+      </c>
+      <c r="H259" t="n">
         <v>2019</v>
-      </c>
-      <c r="H259" t="n">
-        <v>2020</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>12028</v>
+        <v>11859</v>
       </c>
       <c r="B260" t="s">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="C260" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D260" t="s">
-        <v>147</v>
+        <v>107</v>
       </c>
       <c r="E260" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="F260" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G260" t="n">
+        <v>2018</v>
+      </c>
+      <c r="H260" t="n">
         <v>2019</v>
-      </c>
-      <c r="H260" t="n">
-        <v>2020</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>12499</v>
+        <v>11820</v>
       </c>
       <c r="B261" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="C261" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D261" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E261" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="F261" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G261" t="n">
+        <v>2018</v>
+      </c>
+      <c r="H261" t="n">
         <v>2019</v>
-      </c>
-      <c r="H261" t="n">
-        <v>2020</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>10660</v>
+        <v>11824</v>
       </c>
       <c r="B262" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="C262" t="s">
         <v>9</v>
       </c>
       <c r="D262" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E262" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="F262" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G262" t="n">
+        <v>2018</v>
+      </c>
+      <c r="H262" t="n">
         <v>2019</v>
-      </c>
-      <c r="H262" t="n">
-        <v>2020</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>11827</v>
+        <v>748</v>
       </c>
       <c r="B263" t="s">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="C263" t="s">
         <v>9</v>
       </c>
       <c r="D263" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E263" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="F263" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G263" t="n">
+        <v>2018</v>
+      </c>
+      <c r="H263" t="n">
         <v>2019</v>
-      </c>
-      <c r="H263" t="n">
-        <v>2020</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>11826</v>
+        <v>745</v>
       </c>
       <c r="B264" t="s">
-        <v>115</v>
+        <v>39</v>
       </c>
       <c r="C264" t="s">
         <v>9</v>
       </c>
       <c r="D264" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E264" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="F264" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G264" t="n">
+        <v>2018</v>
+      </c>
+      <c r="H264" t="n">
         <v>2019</v>
-      </c>
-      <c r="H264" t="n">
-        <v>2020</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>11828</v>
+        <v>10659</v>
       </c>
       <c r="B265" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="C265" t="s">
         <v>9</v>
       </c>
       <c r="D265" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E265" t="s">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="F265" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G265" t="n">
+        <v>2018</v>
+      </c>
+      <c r="H265" t="n">
         <v>2019</v>
-      </c>
-      <c r="H265" t="n">
-        <v>2020</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>9652</v>
+        <v>11823</v>
       </c>
       <c r="B266" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="C266" t="s">
         <v>9</v>
       </c>
       <c r="D266" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E266" t="s">
-        <v>120</v>
+        <v>167</v>
       </c>
       <c r="F266" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G266" t="n">
+        <v>2018</v>
+      </c>
+      <c r="H266" t="n">
         <v>2019</v>
-      </c>
-      <c r="H266" t="n">
-        <v>2020</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>11859</v>
+        <v>11929</v>
       </c>
       <c r="B267" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="C267" t="s">
         <v>9</v>
       </c>
       <c r="D267" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E267" t="s">
-        <v>124</v>
+        <v>168</v>
       </c>
       <c r="F267" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G267" t="n">
+        <v>2018</v>
+      </c>
+      <c r="H267" t="n">
         <v>2019</v>
-      </c>
-      <c r="H267" t="n">
-        <v>2020</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>11820</v>
+        <v>11815</v>
       </c>
       <c r="B268" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C268" t="s">
         <v>9</v>
       </c>
       <c r="D268" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E268" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="F268" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G268" t="n">
+        <v>2018</v>
+      </c>
+      <c r="H268" t="n">
         <v>2019</v>
-      </c>
-      <c r="H268" t="n">
-        <v>2020</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>11824</v>
+        <v>11814</v>
       </c>
       <c r="B269" t="s">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="C269" t="s">
         <v>9</v>
       </c>
       <c r="D269" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E269" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="F269" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G269" t="n">
+        <v>2018</v>
+      </c>
+      <c r="H269" t="n">
         <v>2019</v>
-      </c>
-      <c r="H269" t="n">
-        <v>2020</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>748</v>
+        <v>11811</v>
       </c>
       <c r="B270" t="s">
-        <v>36</v>
+        <v>144</v>
       </c>
       <c r="C270" t="s">
         <v>9</v>
       </c>
       <c r="D270" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E270" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="F270" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G270" t="n">
+        <v>2018</v>
+      </c>
+      <c r="H270" t="n">
         <v>2019</v>
-      </c>
-      <c r="H270" t="n">
-        <v>2020</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>745</v>
+        <v>11812</v>
       </c>
       <c r="B271" t="s">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="C271" t="s">
         <v>9</v>
       </c>
       <c r="D271" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E271" t="s">
-        <v>70</v>
+        <v>147</v>
       </c>
       <c r="F271" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G271" t="n">
+        <v>2018</v>
+      </c>
+      <c r="H271" t="n">
         <v>2019</v>
-      </c>
-      <c r="H271" t="n">
-        <v>2020</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>12500</v>
+        <v>11809</v>
       </c>
       <c r="B272" t="s">
-        <v>71</v>
+        <v>148</v>
       </c>
       <c r="C272" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D272" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E272" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F272" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G272" t="n">
+        <v>2018</v>
+      </c>
+      <c r="H272" t="n">
         <v>2019</v>
-      </c>
-      <c r="H272" t="n">
-        <v>2020</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>11823</v>
+        <v>11810</v>
       </c>
       <c r="B273" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="C273" t="s">
         <v>9</v>
       </c>
       <c r="D273" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E273" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F273" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G273" t="n">
+        <v>2018</v>
+      </c>
+      <c r="H273" t="n">
         <v>2019</v>
-      </c>
-      <c r="H273" t="n">
-        <v>2020</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>11929</v>
+        <v>10105</v>
       </c>
       <c r="B274" t="s">
-        <v>142</v>
+        <v>15</v>
       </c>
       <c r="C274" t="s">
         <v>9</v>
       </c>
       <c r="D274" t="s">
-        <v>103</v>
+        <v>51</v>
       </c>
       <c r="E274" t="s">
-        <v>153</v>
+        <v>81</v>
       </c>
       <c r="F274" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G274" t="n">
+        <v>2018</v>
+      </c>
+      <c r="H274" t="n">
         <v>2019</v>
-      </c>
-      <c r="H274" t="n">
-        <v>2020</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>10825</v>
+        <v>10609</v>
       </c>
       <c r="B275" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C275" t="s">
         <v>9</v>
       </c>
       <c r="D275" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="E275" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="F275" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G275" t="n">
+        <v>2018</v>
+      </c>
+      <c r="H275" t="n">
         <v>2019</v>
-      </c>
-      <c r="H275" t="n">
-        <v>2020</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>11815</v>
+        <v>11912</v>
       </c>
       <c r="B276" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="C276" t="s">
         <v>9</v>
       </c>
       <c r="D276" t="s">
-        <v>103</v>
+        <v>159</v>
       </c>
       <c r="E276" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="F276" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G276" t="n">
         <v>2019</v>
@@ -7878,22 +8037,22 @@
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>11814</v>
+        <v>11612</v>
       </c>
       <c r="B277" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="C277" t="s">
         <v>9</v>
       </c>
       <c r="D277" t="s">
-        <v>103</v>
+        <v>159</v>
       </c>
       <c r="E277" t="s">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="F277" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G277" t="n">
         <v>2019</v>
@@ -7904,22 +8063,22 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>11811</v>
+        <v>12028</v>
       </c>
       <c r="B278" t="s">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="C278" t="s">
-        <v>9</v>
+        <v>98</v>
       </c>
       <c r="D278" t="s">
-        <v>103</v>
+        <v>159</v>
       </c>
       <c r="E278" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="F278" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G278" t="n">
         <v>2019</v>
@@ -7930,22 +8089,22 @@
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>11812</v>
+        <v>12261</v>
       </c>
       <c r="B279" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="C279" t="s">
         <v>9</v>
       </c>
       <c r="D279" t="s">
-        <v>103</v>
+        <v>159</v>
       </c>
       <c r="E279" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="F279" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G279" t="n">
         <v>2019</v>
@@ -7956,22 +8115,22 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>11809</v>
+        <v>12263</v>
       </c>
       <c r="B280" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="C280" t="s">
         <v>9</v>
       </c>
       <c r="D280" t="s">
-        <v>103</v>
+        <v>159</v>
       </c>
       <c r="E280" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="F280" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G280" t="n">
         <v>2019</v>
@@ -7982,22 +8141,22 @@
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>11810</v>
+        <v>12264</v>
       </c>
       <c r="B281" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="C281" t="s">
         <v>9</v>
       </c>
       <c r="D281" t="s">
-        <v>103</v>
+        <v>159</v>
       </c>
       <c r="E281" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="F281" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G281" t="n">
         <v>2019</v>
@@ -8008,22 +8167,22 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>10105</v>
+        <v>12499</v>
       </c>
       <c r="B282" t="s">
-        <v>13</v>
+        <v>169</v>
       </c>
       <c r="C282" t="s">
-        <v>9</v>
+        <v>98</v>
       </c>
       <c r="D282" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="E282" t="s">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="F282" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G282" t="n">
         <v>2019</v>
@@ -8034,27 +8193,573 @@
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>10609</v>
+        <v>10660</v>
       </c>
       <c r="B283" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="C283" t="s">
         <v>9</v>
       </c>
       <c r="D283" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="E283" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="F283" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G283" t="n">
         <v>2019</v>
       </c>
       <c r="H283" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>11827</v>
+      </c>
+      <c r="B284" t="s">
+        <v>123</v>
+      </c>
+      <c r="C284" t="s">
+        <v>9</v>
+      </c>
+      <c r="D284" t="s">
+        <v>107</v>
+      </c>
+      <c r="E284" t="s">
+        <v>124</v>
+      </c>
+      <c r="F284" t="s">
+        <v>12</v>
+      </c>
+      <c r="G284" t="n">
+        <v>2019</v>
+      </c>
+      <c r="H284" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>11826</v>
+      </c>
+      <c r="B285" t="s">
+        <v>125</v>
+      </c>
+      <c r="C285" t="s">
+        <v>9</v>
+      </c>
+      <c r="D285" t="s">
+        <v>107</v>
+      </c>
+      <c r="E285" t="s">
+        <v>126</v>
+      </c>
+      <c r="F285" t="s">
+        <v>12</v>
+      </c>
+      <c r="G285" t="n">
+        <v>2019</v>
+      </c>
+      <c r="H285" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>11828</v>
+      </c>
+      <c r="B286" t="s">
+        <v>127</v>
+      </c>
+      <c r="C286" t="s">
+        <v>9</v>
+      </c>
+      <c r="D286" t="s">
+        <v>107</v>
+      </c>
+      <c r="E286" t="s">
+        <v>128</v>
+      </c>
+      <c r="F286" t="s">
+        <v>12</v>
+      </c>
+      <c r="G286" t="n">
+        <v>2019</v>
+      </c>
+      <c r="H286" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>9652</v>
+      </c>
+      <c r="B287" t="s">
+        <v>129</v>
+      </c>
+      <c r="C287" t="s">
+        <v>9</v>
+      </c>
+      <c r="D287" t="s">
+        <v>107</v>
+      </c>
+      <c r="E287" t="s">
+        <v>130</v>
+      </c>
+      <c r="F287" t="s">
+        <v>12</v>
+      </c>
+      <c r="G287" t="n">
+        <v>2019</v>
+      </c>
+      <c r="H287" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>11859</v>
+      </c>
+      <c r="B288" t="s">
+        <v>133</v>
+      </c>
+      <c r="C288" t="s">
+        <v>9</v>
+      </c>
+      <c r="D288" t="s">
+        <v>107</v>
+      </c>
+      <c r="E288" t="s">
+        <v>134</v>
+      </c>
+      <c r="F288" t="s">
+        <v>12</v>
+      </c>
+      <c r="G288" t="n">
+        <v>2019</v>
+      </c>
+      <c r="H288" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>11820</v>
+      </c>
+      <c r="B289" t="s">
+        <v>166</v>
+      </c>
+      <c r="C289" t="s">
+        <v>9</v>
+      </c>
+      <c r="D289" t="s">
+        <v>107</v>
+      </c>
+      <c r="E289" t="s">
+        <v>132</v>
+      </c>
+      <c r="F289" t="s">
+        <v>12</v>
+      </c>
+      <c r="G289" t="n">
+        <v>2019</v>
+      </c>
+      <c r="H289" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>11824</v>
+      </c>
+      <c r="B290" t="s">
+        <v>135</v>
+      </c>
+      <c r="C290" t="s">
+        <v>9</v>
+      </c>
+      <c r="D290" t="s">
+        <v>107</v>
+      </c>
+      <c r="E290" t="s">
+        <v>136</v>
+      </c>
+      <c r="F290" t="s">
+        <v>12</v>
+      </c>
+      <c r="G290" t="n">
+        <v>2019</v>
+      </c>
+      <c r="H290" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>748</v>
+      </c>
+      <c r="B291" t="s">
+        <v>38</v>
+      </c>
+      <c r="C291" t="s">
+        <v>9</v>
+      </c>
+      <c r="D291" t="s">
+        <v>107</v>
+      </c>
+      <c r="E291" t="s">
+        <v>137</v>
+      </c>
+      <c r="F291" t="s">
+        <v>12</v>
+      </c>
+      <c r="G291" t="n">
+        <v>2019</v>
+      </c>
+      <c r="H291" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>745</v>
+      </c>
+      <c r="B292" t="s">
+        <v>39</v>
+      </c>
+      <c r="C292" t="s">
+        <v>9</v>
+      </c>
+      <c r="D292" t="s">
+        <v>107</v>
+      </c>
+      <c r="E292" t="s">
+        <v>74</v>
+      </c>
+      <c r="F292" t="s">
+        <v>12</v>
+      </c>
+      <c r="G292" t="n">
+        <v>2019</v>
+      </c>
+      <c r="H292" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>12500</v>
+      </c>
+      <c r="B293" t="s">
+        <v>75</v>
+      </c>
+      <c r="C293" t="s">
+        <v>98</v>
+      </c>
+      <c r="D293" t="s">
+        <v>107</v>
+      </c>
+      <c r="E293" t="s">
+        <v>171</v>
+      </c>
+      <c r="F293" t="s">
+        <v>12</v>
+      </c>
+      <c r="G293" t="n">
+        <v>2019</v>
+      </c>
+      <c r="H293" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>11823</v>
+      </c>
+      <c r="B294" t="s">
+        <v>138</v>
+      </c>
+      <c r="C294" t="s">
+        <v>9</v>
+      </c>
+      <c r="D294" t="s">
+        <v>107</v>
+      </c>
+      <c r="E294" t="s">
+        <v>167</v>
+      </c>
+      <c r="F294" t="s">
+        <v>12</v>
+      </c>
+      <c r="G294" t="n">
+        <v>2019</v>
+      </c>
+      <c r="H294" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>11929</v>
+      </c>
+      <c r="B295" t="s">
+        <v>152</v>
+      </c>
+      <c r="C295" t="s">
+        <v>9</v>
+      </c>
+      <c r="D295" t="s">
+        <v>107</v>
+      </c>
+      <c r="E295" t="s">
+        <v>168</v>
+      </c>
+      <c r="F295" t="s">
+        <v>12</v>
+      </c>
+      <c r="G295" t="n">
+        <v>2019</v>
+      </c>
+      <c r="H295" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>10825</v>
+      </c>
+      <c r="B296" t="s">
+        <v>95</v>
+      </c>
+      <c r="C296" t="s">
+        <v>9</v>
+      </c>
+      <c r="D296" t="s">
+        <v>107</v>
+      </c>
+      <c r="E296" t="s">
+        <v>104</v>
+      </c>
+      <c r="F296" t="s">
+        <v>12</v>
+      </c>
+      <c r="G296" t="n">
+        <v>2019</v>
+      </c>
+      <c r="H296" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>11815</v>
+      </c>
+      <c r="B297" t="s">
+        <v>154</v>
+      </c>
+      <c r="C297" t="s">
+        <v>9</v>
+      </c>
+      <c r="D297" t="s">
+        <v>107</v>
+      </c>
+      <c r="E297" t="s">
+        <v>141</v>
+      </c>
+      <c r="F297" t="s">
+        <v>12</v>
+      </c>
+      <c r="G297" t="n">
+        <v>2019</v>
+      </c>
+      <c r="H297" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>11814</v>
+      </c>
+      <c r="B298" t="s">
+        <v>155</v>
+      </c>
+      <c r="C298" t="s">
+        <v>9</v>
+      </c>
+      <c r="D298" t="s">
+        <v>107</v>
+      </c>
+      <c r="E298" t="s">
+        <v>143</v>
+      </c>
+      <c r="F298" t="s">
+        <v>12</v>
+      </c>
+      <c r="G298" t="n">
+        <v>2019</v>
+      </c>
+      <c r="H298" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>11811</v>
+      </c>
+      <c r="B299" t="s">
+        <v>144</v>
+      </c>
+      <c r="C299" t="s">
+        <v>9</v>
+      </c>
+      <c r="D299" t="s">
+        <v>107</v>
+      </c>
+      <c r="E299" t="s">
+        <v>145</v>
+      </c>
+      <c r="F299" t="s">
+        <v>12</v>
+      </c>
+      <c r="G299" t="n">
+        <v>2019</v>
+      </c>
+      <c r="H299" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>11812</v>
+      </c>
+      <c r="B300" t="s">
+        <v>146</v>
+      </c>
+      <c r="C300" t="s">
+        <v>9</v>
+      </c>
+      <c r="D300" t="s">
+        <v>107</v>
+      </c>
+      <c r="E300" t="s">
+        <v>147</v>
+      </c>
+      <c r="F300" t="s">
+        <v>12</v>
+      </c>
+      <c r="G300" t="n">
+        <v>2019</v>
+      </c>
+      <c r="H300" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>11809</v>
+      </c>
+      <c r="B301" t="s">
+        <v>148</v>
+      </c>
+      <c r="C301" t="s">
+        <v>9</v>
+      </c>
+      <c r="D301" t="s">
+        <v>107</v>
+      </c>
+      <c r="E301" t="s">
+        <v>149</v>
+      </c>
+      <c r="F301" t="s">
+        <v>12</v>
+      </c>
+      <c r="G301" t="n">
+        <v>2019</v>
+      </c>
+      <c r="H301" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>11810</v>
+      </c>
+      <c r="B302" t="s">
+        <v>150</v>
+      </c>
+      <c r="C302" t="s">
+        <v>9</v>
+      </c>
+      <c r="D302" t="s">
+        <v>107</v>
+      </c>
+      <c r="E302" t="s">
+        <v>151</v>
+      </c>
+      <c r="F302" t="s">
+        <v>12</v>
+      </c>
+      <c r="G302" t="n">
+        <v>2019</v>
+      </c>
+      <c r="H302" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>10105</v>
+      </c>
+      <c r="B303" t="s">
+        <v>15</v>
+      </c>
+      <c r="C303" t="s">
+        <v>9</v>
+      </c>
+      <c r="D303" t="s">
+        <v>51</v>
+      </c>
+      <c r="E303" t="s">
+        <v>81</v>
+      </c>
+      <c r="F303" t="s">
+        <v>12</v>
+      </c>
+      <c r="G303" t="n">
+        <v>2019</v>
+      </c>
+      <c r="H303" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>10609</v>
+      </c>
+      <c r="B304" t="s">
+        <v>83</v>
+      </c>
+      <c r="C304" t="s">
+        <v>9</v>
+      </c>
+      <c r="D304" t="s">
+        <v>47</v>
+      </c>
+      <c r="E304" t="s">
+        <v>84</v>
+      </c>
+      <c r="F304" t="s">
+        <v>12</v>
+      </c>
+      <c r="G304" t="n">
+        <v>2019</v>
+      </c>
+      <c r="H304" t="n">
         <v>2020</v>
       </c>
     </row>
